--- a/REGISTROS/registro.xlsx
+++ b/REGISTROS/registro.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -4182,6 +4182,28 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>14-08-2025</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>06:-7:58</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DIOGO MARINHO CARDOSO</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="1" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" saltValue="m6YVhZmkdrYyl3Il1bpqbQ==" formatRows="1" sort="1" spinCount="100000" hashValue="M2wZFazLMP7pN/M1ODfAEJ5geEWmG+4aPH61WO2ifF2Zc3p1xdWg++Q8Qfymwl7d14T5T1Bh7+OMycsNlovQdA=="/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
